--- a/data-2020/10-grade.xlsx
+++ b/data-2020/10-grade.xlsx
@@ -5819,7 +5819,7 @@
     <t xml:space="preserve">Arithmetic/geometric sequences</t>
   </si>
   <si>
-    <t xml:space="preserve">System of linear equations</t>
+    <t xml:space="preserve">System of equations</t>
   </si>
   <si>
     <t xml:space="preserve">Divisibility</t>
@@ -5970,10 +5970,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="F1" activeCellId="1" sqref="C:C F1"/>
+      <selection pane="bottomLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="18.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.25"/>
@@ -50941,21 +50941,21 @@
   </sheetPr>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C1" activeCellId="0" sqref="C:C"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="12.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="28.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="24.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="28.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.65"/>
   </cols>
   <sheetData>
